--- a/results/mp/logistic/corona/confidence/210/masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,27 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,6 +88,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -103,60 +106,63 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
@@ -169,16 +175,19 @@
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -536,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -655,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8082191780821918</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -705,37 +714,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,16 +785,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,16 +835,16 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8246073298429319</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6440677966101694</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.825065274151436</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5686274509803921</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5608465608465608</v>
+        <v>0.5251937984496124</v>
       </c>
       <c r="C10">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5251937984496124</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5033557046979866</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C12">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>0.7872340425531915</v>
@@ -1105,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3866666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3805555555555555</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C14">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D14">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2658730158730159</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1554959785522788</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,37 +1314,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01094736842105263</v>
+        <v>0.01431578947368421</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F17">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.009987113402061855</v>
+        <v>0.01095360824742268</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E18">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F18">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1405,89 +1414,113 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006031128404669261</v>
+        <v>0.005231388329979879</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>4944</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L19">
+        <v>46</v>
+      </c>
+      <c r="M19">
+        <v>46</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.00505443234836703</v>
+      </c>
+      <c r="C20">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20">
         <v>0.45</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.55</v>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>5109</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L19">
-        <v>25</v>
-      </c>
-      <c r="M19">
-        <v>25</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5118</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L20">
-        <v>44</v>
-      </c>
-      <c r="M20">
-        <v>44</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.6976744186046512</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1499,12 +1532,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>0.675</v>
@@ -1530,16 +1563,16 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.6411764705882353</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L23">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M23">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1551,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>0.6</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1577,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.5941422594142259</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1603,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.5932203389830508</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L26">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="M26">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1629,47 +1662,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.5851063829787234</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5538461538461539</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1681,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1707,85 +1740,137 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.4831460674157304</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L30">
+        <v>46</v>
+      </c>
+      <c r="M30">
+        <v>46</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>43</v>
-      </c>
-      <c r="M30">
-        <v>43</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.03174603174603174</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1159</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32">
+        <v>0.02504173622704508</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33">
+        <v>0.009391435011269721</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>36</v>
+      </c>
+      <c r="N33">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K32">
-        <v>0.004869497467861317</v>
-      </c>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>56</v>
-      </c>
-      <c r="N32">
-        <v>0.45</v>
-      </c>
-      <c r="O32">
-        <v>0.55</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>5109</v>
+      <c r="K34">
+        <v>0.005231388329979879</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>52</v>
+      </c>
+      <c r="N34">
+        <v>0.5</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>4944</v>
       </c>
     </row>
   </sheetData>
